--- a/video_list.xlsx
+++ b/video_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\Github\Download-Video-Youtube\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\Download Video Youtube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1244DF-F18F-4440-8175-07BBEFF953D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71671278-28A9-4C75-B805-9CD058797143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,7 +394,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="D5" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
